--- a/src/com/yiqin/template/tpl_tax_41.xlsx
+++ b/src/com/yiqin/template/tpl_tax_41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <r>
       <rPr>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>#price#</t>
-  </si>
-  <si>
-    <t>1.01</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1531,7 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="18.75" customHeight="1"/>
@@ -2021,7 +2018,7 @@
       <c r="U10" s="47"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:22">
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:21">
       <c r="A11" s="17" t="s">
         <v>48</v>
       </c>
@@ -2060,9 +2057,6 @@
       <c r="T11" s="57"/>
       <c r="U11" s="49" t="s">
         <v>25</v>
-      </c>
-      <c r="V11" s="57" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="16:16">
